--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C436B4A-3E67-41CE-9407-1DE20E6DB916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C6BB2-E8D3-434A-8D83-4BC7D03183B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1510" windowWidth="19200" windowHeight="10060" tabRatio="722" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010" sheetId="2" r:id="rId1"/>
-    <sheet name="301010_choice" sheetId="3" r:id="rId2"/>
-    <sheet name="301011" sheetId="7" r:id="rId3"/>
-    <sheet name="301011_interact" sheetId="12" r:id="rId4"/>
+    <sheet name="401011" sheetId="13" r:id="rId2"/>
+    <sheet name="401011_fail" sheetId="14" r:id="rId3"/>
+    <sheet name="401012" sheetId="15" r:id="rId4"/>
+    <sheet name="402010" sheetId="7" r:id="rId5"/>
+    <sheet name="301010_choice" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,57 +75,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7DCB8DC7-4843-4A52-9DB7-938E55EAC57E}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70042AEB-74E6-4C70-97D4-EEA78B0EFF23}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeOut = 9
-Cinematic = 10
-TempDialogueEnd = 99</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DFD84E2C-5126-4770-B900-2DA55B345F34}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
         <r>
           <rPr>
             <b/>
@@ -133,157 +89,16 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -297,7 +112,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5F77E50D-539E-4B26-AE13-A61F17469BB8}">
       <text>
         <r>
           <rPr>
@@ -331,7 +146,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B4B71EA5-071B-428C-BCA6-C0E6CF12CB86}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D0423AA-7A35-40FD-885A-CCDF56B7B43C}">
       <text>
         <r>
           <rPr>
@@ -359,8 +174,254 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7DCB8DC7-4843-4A52-9DB7-938E55EAC57E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DFD84E2C-5126-4770-B900-2DA55B345F34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>이름</t>
   </si>
@@ -383,10 +444,6 @@
     <t>contents</t>
   </si>
   <si>
-    <t>라우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:EXPRESSION:IDLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choice 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,14 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>301010_choice</t>
   </si>
   <si>
@@ -501,64 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아우..찌뿌둥하다…제대로 못잤네… 어제 그 비명은 도대체…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밑에서 수근 거리는 소리가 크게 들린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음? 뭔 얘기길래 저렇게 떠들고 있담?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301011</t>
-  </si>
-  <si>
-    <t>301011_interact</t>
-  </si>
-  <si>
-    <t>여자1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여자2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어제 그 비명, 그거 사실 누가 죽었던 거래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그니까 말이야…진짜 무섭다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헉…어제 나갔으면 큰일 날 뻔했네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 골목 입구쪽으로 가면 경찰들 쫙 서있다더라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와…무섭다…근데 왜 죽은 거래…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 빚때문에 쫒겼던 것 같은데…나도 제대로 못들어서..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골목 입구..? 스핏이 있는 쪽인데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼른 나가봐야겠어…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue_ep3/301010_choice1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,6 +618,128 @@
   </si>
   <si>
     <t>하지만 이번엔 너무 아닌 것 같다.</t>
+  </si>
+  <si>
+    <t>항상 술취하면 폭력적으로 변하는 아빠…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 뒤..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 그새 아무일도 없다는 듯 코골면서 자고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마는 방에들어가 울고 계신다.</t>
+  </si>
+  <si>
+    <t>학교에서 배웠다. 폭력은 나쁜 것이라고.</t>
+  </si>
+  <si>
+    <t>그런데 항상 우리 집에서 일어나는 일이다.</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰에게 전화하면 도와주지 않을까?</t>
+  </si>
+  <si>
+    <t>그런데 아빠한테 전화하는 걸 걸리면 큰일날 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..하지만 앞으로 계속 이런 일이 일어나지 않았으면 좋겠다.</t>
+  </si>
+  <si>
+    <t>...아빠 몰래 전화를 해보자.</t>
+  </si>
+  <si>
+    <t>401011_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 임마, 뭐하고 있는거냐??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디다 전화하는거야???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401012</t>
+  </si>
+  <si>
+    <t>멀리서 부터 경찰차 소리가 들려온다.</t>
+  </si>
+  <si>
+    <t>그리고 잠시 후 우리집으로 경찰들이 들어왔다.</t>
+  </si>
+  <si>
+    <t>...그런데...</t>
+  </si>
+  <si>
+    <t>아이고 선생님, 별 일 아닌데 번거롭게 해드려서 죄송합니다</t>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고, 아닙니다. 괜히 우리 딸때문에 여기까지 오시느라 고생많았어요</t>
+  </si>
+  <si>
+    <t>아무래도 저희도 일이다 보니 오긴 와야해서요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬마야, 별 일 없지?</t>
+  </si>
+  <si>
+    <t>...큰일났다..</t>
+  </si>
+  <si>
+    <t>나는 아무말도 하지 못한 채 가만히 있을 수 밖에 없었다.</t>
+  </si>
+  <si>
+    <t>제가 딸아이한테 장난 전화 하지말라고 단단히 혼내겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이 괜찮아요 그럴 수 있죠. 너무 나무라지 마세요.</t>
+  </si>
+  <si>
+    <t>그럼 수고하세요.</t>
+  </si>
+  <si>
+    <t>경찰이 문 닫는 소리가 유독 매정하게 들렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 나를 쳐다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠가 나를 슬며시 째려본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…그 이후로 나는 아빠에게서 미친듯이 맞고 또 맞았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402010</t>
+  </si>
+  <si>
+    <t>평소와 같은 날이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -640,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,12 +775,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1024,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1040,7 +1143,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1051,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1062,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1079,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1087,104 +1190,109 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1196,172 +1304,456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8AB946-DC9C-4C39-8415-333D24AF33CC}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606CD70F-2209-4111-A06B-6F5A3F972668}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361401D7-D496-406B-A051-F940D5EAB220}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1374,7 +1766,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1385,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1396,10 +1788,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1413,44 +1805,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1"/>
@@ -1465,154 +1835,152 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D870B-0FB1-4100-AD6E-58FFC9D6293E}">
-  <dimension ref="A1:D12"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C6BB2-E8D3-434A-8D83-4BC7D03183B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C9394-1782-4D0A-9F18-35854485EE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="11" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
-    <sheet name="401010" sheetId="2" r:id="rId1"/>
-    <sheet name="401011" sheetId="13" r:id="rId2"/>
-    <sheet name="401011_fail" sheetId="14" r:id="rId3"/>
-    <sheet name="401012" sheetId="15" r:id="rId4"/>
-    <sheet name="402010" sheetId="7" r:id="rId5"/>
-    <sheet name="301010_choice" sheetId="3" r:id="rId6"/>
+    <sheet name="401010_task" sheetId="18" r:id="rId1"/>
+    <sheet name="401010" sheetId="2" r:id="rId2"/>
+    <sheet name="401011" sheetId="13" r:id="rId3"/>
+    <sheet name="401011_fail" sheetId="14" r:id="rId4"/>
+    <sheet name="401012_task" sheetId="17" r:id="rId5"/>
+    <sheet name="401012" sheetId="15" r:id="rId6"/>
+    <sheet name="402010_task" sheetId="16" r:id="rId7"/>
+    <sheet name="402010" sheetId="7" r:id="rId8"/>
+    <sheet name="402011_task" sheetId="21" r:id="rId9"/>
+    <sheet name="402011" sheetId="20" r:id="rId10"/>
+    <sheet name="403010" sheetId="19" r:id="rId11"/>
+    <sheet name="403011" sheetId="22" r:id="rId12"/>
+    <sheet name="301010_choice" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,181 +48,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D7A3090F-F48C-44E9-9B6B-4C9A9FACBD5F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70042AEB-74E6-4C70-97D4-EEA78B0EFF23}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5F77E50D-539E-4B26-AE13-A61F17469BB8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D0423AA-7A35-40FD-885A-CCDF56B7B43C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7DCB8DC7-4843-4A52-9DB7-938E55EAC57E}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0738743D-784F-46DD-9C75-7A959807EC79}">
       <text>
         <r>
           <rPr>
@@ -241,7 +78,1127 @@
         </r>
       </text>
     </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{6A7B935A-863D-4FD7-9C16-573290EE764C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{82C6C873-CC36-4783-83A0-27A973924E76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{39F978A5-865D-46F1-933F-0207787A1D11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{94666E66-B8EE-43C3-9189-21C2C13E5837}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7DCB8DC7-4843-4A52-9DB7-938E55EAC57E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DFD84E2C-5126-4770-B900-2DA55B345F34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D7A3090F-F48C-44E9-9B6B-4C9A9FACBD5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70042AEB-74E6-4C70-97D4-EEA78B0EFF23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5F77E50D-539E-4B26-AE13-A61F17469BB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{88F1271B-46B5-4B87-B2B8-B09A50F39284}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A363C86A-ED4F-4C64-9C37-A63382099226}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D0423AA-7A35-40FD-885A-CCDF56B7B43C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E99E70F2-3EFE-49F4-B207-D3B480595FF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3A9B8DCA-B0B0-4925-BEE1-8102AFC0A9B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C9A019EA-75C7-45D6-9A5F-F5CE37E41576}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5CD5F8E6-5817-460C-AB90-70C758A6A170}">
       <text>
         <r>
           <rPr>
@@ -421,7 +1378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="130">
   <si>
     <t>이름</t>
   </si>
@@ -731,15 +1688,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…그 이후로 나는 아빠에게서 미친듯이 맞고 또 맞았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>402010</t>
   </si>
   <si>
-    <t>평소와 같은 날이었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>…그 이후로 나는 아빠에게서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 맞았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친듯이 맞고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5년 뒤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소와 다를 것 없이 학교에서 돌아오는 날이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 집을 돌아오는 길은 평소와 달랐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아오는 길에 경찰차가 여러 대 있었고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 점점 가까워 질 수록 나는 불안해졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 그 불안은 현실이 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402010_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/401010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401010_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep4/401011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/401012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰차효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403010</t>
+  </si>
+  <si>
+    <t>dialogue_ep4/402010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402011</t>
+  </si>
+  <si>
+    <t>dialogue_ep4/402011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402011_task</t>
+  </si>
+  <si>
+    <t>엄마는 아빠에게 맞다가 죽었다고 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘도 무심하시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 죄없는 엄마를 데려가는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 자신은 실수였다고 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직히 실수라고 하기엔 엄마몸에는 쌓이고 쌓여왔던 상처들이 너무 많았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 경찰은 이를 상해치사라는 말과 함꼐 아빠를 데려갔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 내가 어릴 지라도 왜 살인죄가 아닌지 이해를 할 수 가 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 나는 혼자 지내게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변에서는 나를 안쓰럽게 쳐다봤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 나는 오히려 편했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마가 없어서 슬프다는 것을 제외하고는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무나 평화로웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 평화가 계속 됐으면…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 무색하게 지나갔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 돌아왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년이라는 시간동안 평화로웠고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 편의점 알바를 하면서 살아왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠가 돌아온 이후에도 나는 계속 편의점 알바를 해야했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 전과 똑같았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술먹고 시비걸고 술먹고 자고..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의점에서 알바하면서 만나는 진상들은 아무렇지도 않다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오히려 편의점에 있는 시간이 더 좋다. 집에 있을 때 보다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403011</t>
   </si>
 </sst>
 </file>
@@ -1126,6 +2242,650 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8944CA-F2E0-4795-A0E9-9BF85EE47D03}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D696238-5705-4B4A-9D0A-26F39823CC56}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9FCA44-856B-4E55-8D34-B58F5EDBE313}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C3C0D6-7BB6-48F4-9642-353F39E26DBA}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -1303,12 +3063,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8AB946-DC9C-4C39-8415-333D24AF33CC}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1440,7 +3200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606CD70F-2209-4111-A06B-6F5A3F972668}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1567,12 +3327,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361401D7-D496-406B-A051-F940D5EAB220}">
-  <dimension ref="A1:E20"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF484EFD-D010-4661-B7A1-25B67F7291A6}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361401D7-D496-406B-A051-F940D5EAB220}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1737,7 +3604,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1748,12 +3625,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19964443-B7ED-4F71-8376-E110A674DAE7}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1766,7 +3766,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1813,20 +3813,33 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1835,12 +3848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
-  <dimension ref="A1:F8"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545A19C8-23AC-40D5-88B1-14785F06D464}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1852,7 +3865,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1919,14 +3932,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1934,47 +3941,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
         <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
       </c>
       <c r="D6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C9394-1782-4D0A-9F18-35854485EE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B231F38F-F38C-4ED3-AF86-BFAA19AD9FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="11" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="1" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <sheet name="402010" sheetId="7" r:id="rId8"/>
     <sheet name="402011_task" sheetId="21" r:id="rId9"/>
     <sheet name="402011" sheetId="20" r:id="rId10"/>
-    <sheet name="403010" sheetId="19" r:id="rId11"/>
-    <sheet name="403011" sheetId="22" r:id="rId12"/>
-    <sheet name="301010_choice" sheetId="3" r:id="rId13"/>
+    <sheet name="403010_task" sheetId="23" r:id="rId11"/>
+    <sheet name="403010" sheetId="19" r:id="rId12"/>
+    <sheet name="403011" sheetId="22" r:id="rId13"/>
+    <sheet name="403012" sheetId="24" r:id="rId14"/>
+    <sheet name="301010_choice" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -294,30 +296,208 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{39F978A5-865D-46F1-933F-0207787A1D11}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{60DBBB53-C2C1-4CCD-972F-236042016B8E}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{B26D008F-6492-48D9-AB91-A46592299978}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -331,7 +511,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{94666E66-B8EE-43C3-9189-21C2C13E5837}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{39F978A5-865D-46F1-933F-0207787A1D11}">
       <text>
         <r>
           <rPr>
@@ -360,6 +540,74 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{94666E66-B8EE-43C3-9189-21C2C13E5837}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{91DF13ED-A978-4508-9A18-AE4843BF2781}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -1378,7 +1626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="154">
   <si>
     <t>이름</t>
   </si>
@@ -1819,10 +2067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간이 무색하게 지나갔고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아빠는 돌아왔다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1856,6 +2100,104 @@
   </si>
   <si>
     <t>403011</t>
+  </si>
+  <si>
+    <t>하지만 시간이 무색하게 지나갔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403010_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep4/403010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 평소보다 늦게 들어갔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 편의점 근처에 있는 놀이터에서 멍때리면서 시간을 보냈다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지긋지긋한 집구석에 들어가기 싫어서.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 들어가니 역시 오늘도 그 새끼는 취해있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야….너…어딜 그렇게 싸돌아 다니냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐긴 뭐에요 그냥 알바하고 왔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(당신이 일을 안하니까 내가 하고 있잖아.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말뽄새가 왜그러냐? 너도 내가 혐오스러워?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하…(맞는 말이긴 하지) 얼른 자요. 많이 취했네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 새끼 봐라? 내가 만만하냐고!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403012</t>
+  </si>
+  <si>
+    <t>유리잔을 던지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 내게 술병을 던졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행히 취한 덕분에 정통으로 맞지는 않았지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 술병의 파편은 나의 얼굴을 그어버렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피는 뚝뚝 떨어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아빠는 아랑곳하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니까 이제까지 나와 엄마를 패고 엄마를 죽이고도 남은 새끼였지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2506,11 +2848,148 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476287AE-8D43-457F-9581-A3BD7766E0CD}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9FCA44-856B-4E55-8D34-B58F5EDBE313}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2570,162 +3049,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C3C0D6-7BB6-48F4-9642-353F39E26DBA}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="45.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2736,6 +3100,258 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C3C0D6-7BB6-48F4-9642-353F39E26DBA}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="56.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816B0C39-7AC1-42B6-906B-640B37FEF25A}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="56.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
   <dimension ref="A1:F8"/>
   <sheetViews>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B231F38F-F38C-4ED3-AF86-BFAA19AD9FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C681FB0F-A1AF-4CF5-AB3F-EBDCA09ADDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="1" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="403010" sheetId="19" r:id="rId12"/>
     <sheet name="403011" sheetId="22" r:id="rId13"/>
     <sheet name="403012" sheetId="24" r:id="rId14"/>
-    <sheet name="301010_choice" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -607,218 +606,6 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7DCB8DC7-4843-4A52-9DB7-938E55EAC57E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeIn = 9
-FadeOut=10
-Cinematic = 11
-EndingChoice=12</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DFD84E2C-5126-4770-B900-2DA55B345F34}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -1626,7 +1413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="146">
   <si>
     <t>이름</t>
   </si>
@@ -1724,41 +1511,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라우대화1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301010_choice</t>
-  </si>
-  <si>
-    <t>dialogue_ep3/301010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무서우니 그냥 자버린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁금하니 밖으로 한번 나가본다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep3/301010_choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301010_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>401010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2153,10 +1909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 새끼 봐라? 내가 만만하냐고!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue_ep4/403011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2197,6 +1949,10 @@
   </si>
   <si>
     <t>그러니까 이제까지 나와 엄마를 패고 엄마를 죽이고도 남은 새끼였지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 새끼 봐라? 내가 만만하냐고???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2600,7 +2356,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2679,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2698,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2716,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D696238-5705-4B4A-9D0A-26F39823CC56}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2730,7 +2486,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2777,67 +2533,67 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +2620,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2943,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2954,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2962,7 +2718,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -2970,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3002,7 +2758,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3049,47 +2805,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +2860,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3117,7 +2873,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3164,70 +2920,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816B0C39-7AC1-42B6-906B-640B37FEF25A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3255,7 +3011,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3302,37 +3058,37 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -3348,156 +3104,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3519,7 +3125,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3566,109 +3172,109 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3684,7 +3290,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3697,7 +3303,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3744,57 +3350,57 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3834,7 +3440,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3881,18 +3487,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3960,7 +3566,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4036,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4068,7 +3674,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4115,122 +3721,122 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +3864,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4337,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4353,7 +3959,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4369,7 +3975,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4382,7 +3988,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4429,32 +4035,32 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4087,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4560,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C681FB0F-A1AF-4CF5-AB3F-EBDCA09ADDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237D38A-2D7B-4137-8594-0052D1535183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -961,7 +961,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E99E70F2-3EFE-49F4-B207-D3B480595FF3}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{949F9DB0-B37A-49FD-84C3-D44EF76CAE9E}">
       <text>
         <r>
           <rPr>
@@ -1479,10 +1479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1491,10 +1487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nextFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1953,6 +1945,14 @@
   </si>
   <si>
     <t>이 새끼 봐라? 내가 만만하냐고???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2356,7 +2356,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2387,13 +2387,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -2404,22 +2404,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2435,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2472,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D696238-5705-4B4A-9D0A-26F39823CC56}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2486,7 +2486,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2533,67 +2533,67 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2607,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476287AE-8D43-457F-9581-A3BD7766E0CD}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2620,7 +2620,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2651,13 +2651,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -2668,22 +2668,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2758,7 +2758,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2805,47 +2805,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2873,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2920,70 +2920,70 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +2998,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3011,7 +3011,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3058,37 +3058,37 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -3125,7 +3125,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3172,109 +3172,109 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3303,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3350,57 +3350,57 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3440,7 +3440,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3487,18 +3487,18 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3554,7 +3554,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3566,7 +3566,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -3597,13 +3597,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3614,22 +3614,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -3642,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3674,7 +3674,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3721,122 +3721,122 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3852,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3864,7 +3864,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -3895,13 +3895,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3912,22 +3912,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -3943,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3988,7 +3988,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4035,32 +4035,32 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +4075,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4087,7 +4087,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4118,13 +4118,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4135,22 +4135,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237D38A-2D7B-4137-8594-0052D1535183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396CF974-66EB-4574-B3B6-D4851B526A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="4" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -24,9 +24,11 @@
     <sheet name="402011_task" sheetId="21" r:id="rId9"/>
     <sheet name="402011" sheetId="20" r:id="rId10"/>
     <sheet name="403010_task" sheetId="23" r:id="rId11"/>
-    <sheet name="403010" sheetId="19" r:id="rId12"/>
-    <sheet name="403011" sheetId="22" r:id="rId13"/>
-    <sheet name="403012" sheetId="24" r:id="rId14"/>
+    <sheet name="403010_1" sheetId="19" r:id="rId12"/>
+    <sheet name="403010_2" sheetId="22" r:id="rId13"/>
+    <sheet name="403010_3" sheetId="24" r:id="rId14"/>
+    <sheet name="403020_task" sheetId="26" r:id="rId15"/>
+    <sheet name="403020_1" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -606,6 +608,252 @@
 </comments>
 </file>
 
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{03EBDA56-686D-4F53-B617-323BE92E6512}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DB697B1D-86BE-46CF-A3F7-1610741F46A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{43BC3142-D916-4B3D-B634-A4D15F9753E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -1413,7 +1661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="152">
   <si>
     <t>이름</t>
   </si>
@@ -1746,9 +1994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>403010</t>
-  </si>
-  <si>
     <t>dialogue_ep4/402010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1847,9 +2092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>403011</t>
-  </si>
-  <si>
     <t>하지만 시간이 무색하게 지나갔고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1857,10 +2099,6 @@
     <t>403010_task</t>
   </si>
   <si>
-    <t>dialogue_ep4/403010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오늘은 평소보다 늦게 들어갔다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1901,17 +2139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep4/403011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep4/403012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403012</t>
-  </si>
-  <si>
     <t>유리잔을 던지는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1936,23 +2163,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그렇지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그러니까 이제까지 나와 엄마를 패고 엄마를 죽이고도 남은 새끼였지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 새끼 봐라? 내가 만만하냐고???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:TaskContentType:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 내 손으로 피를 닦으며 이 지옥같은 곳에서 벗어났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야!!! 어디가!!! 어른이 말을 하는데 싸가지없게!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 새끼 봐라? 내가 만만하냐고!?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403020_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403010_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403010_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403010_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(수개월 후...)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2387,7 +2662,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2407,7 +2682,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -2486,7 +2761,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2533,67 +2808,67 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2605,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476287AE-8D43-457F-9581-A3BD7766E0CD}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2620,7 +2895,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2651,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2671,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -2699,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2710,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2718,7 +2993,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -2726,9 +3001,17 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
@@ -2745,7 +3028,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2758,7 +3041,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2805,47 +3088,47 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +3143,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2873,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2920,22 +3203,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -2943,23 +3226,23 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -2967,15 +3250,15 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -2983,7 +3266,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3281,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3011,7 +3294,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3058,27 +3341,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3088,17 +3371,233 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
         <v>142</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6964F33-DB17-499C-B5C9-59E23DEADFBA}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3078976-F65B-4A80-99C7-8AE4B55462F2}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3597,7 +4096,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3617,7 +4116,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3895,7 +4394,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3915,7 +4414,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3943,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4087,7 +4586,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4118,7 +4617,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4138,7 +4637,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4166,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396CF974-66EB-4574-B3B6-D4851B526A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144394F-D93A-4062-8F8C-B7F583246443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="4" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="8" activeTab="17" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -29,6 +29,12 @@
     <sheet name="403010_3" sheetId="24" r:id="rId14"/>
     <sheet name="403020_task" sheetId="26" r:id="rId15"/>
     <sheet name="403020_1" sheetId="27" r:id="rId16"/>
+    <sheet name="403020_choice1" sheetId="28" r:id="rId17"/>
+    <sheet name="403020_choice1_1" sheetId="29" r:id="rId18"/>
+    <sheet name="403020_choice1_2" sheetId="30" r:id="rId19"/>
+    <sheet name="403020_choice2" sheetId="31" r:id="rId20"/>
+    <sheet name="403020_choice2_1" sheetId="32" r:id="rId21"/>
+    <sheet name="403020_choice2_2" sheetId="33" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -854,6 +860,286 @@
 </comments>
 </file>
 
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B99F519A-C2B8-4F21-B183-093E1B6DD9AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D4775388-FA6B-475F-9B1C-0AD7F3DC36F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B34F8ED4-E0DC-426D-BACC-65657AE8E4E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70869978-0DC1-4E22-920C-8CB1FCD523C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -861,6 +1147,286 @@
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D7A3090F-F48C-44E9-9B6B-4C9A9FACBD5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{08D817D8-8584-4276-92F1-3185CA911669}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7E2968EC-FCA1-47D3-A706-E5038303737C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{514BA5BE-9F56-4A06-AD04-516351C12BFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9941CC4D-03ED-4EC8-B3CF-9B6A80E67070}">
       <text>
         <r>
           <rPr>
@@ -1661,7 +2227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="190">
   <si>
     <t>이름</t>
   </si>
@@ -2068,10 +2634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 편의점 알바를 하면서 살아왔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아빠가 돌아온 이후에도 나는 계속 편의점 알바를 해야했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2228,6 +2790,162 @@
   </si>
   <si>
     <t>(수개월 후...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 몰래 나간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자고 있는 아빠의 지갑을 몰래 훔쳐 달아난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403020_choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403020_choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403020_choice1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_choice1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403020_choice1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_choice1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403020_choice2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep4/403020_choice2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_choice2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403020_choice2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의점 사장님의 배려로 부모님 동의서 없이 몰래 알바를 하면서 살아왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집은 더 엉망징창이 되었고 나의 몸에는 날로갈 수록 상처만 늘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…사실 예전부터 고민해왔고, 드디어 결정했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 지옥에서 당장 도망쳐야겠다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 내 눈에는 술에 절여져 쳐자고 있는 놈의 지갑이 눈에 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 어떻게 해야될까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애비라는 저 작자는 왜 다시 나타나서 나의 숨통을 죄는 걸까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 알바로 모은 돈이 있긴하지만…언제 떨어질 지 모르니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코골면서 자고 있는 아빠의 곁으로 다가간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 걸리면 나는…두눈을 멀쩡히 뜨지 못할 수 도 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…식은 땀이 난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심스럽게 손을 지갑을 향해 다가간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으음…다 너때문이야….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 화들짝 놀라 굳어버렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠꼬댄가…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어질 것 같은 심장을 부여잡고 다시 다가간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡았다…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰래 슬며시 빼냈고, 살금살금 밖으로 나갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…하지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지갑 안에는 그저 피씨방에서 잠깐 머물 수 있을 정도의 돈 밖에 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…젠장…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2682,7 +3400,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -2895,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2926,7 +3644,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2946,7 +3664,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -2974,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2985,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2993,7 +3711,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -3001,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3028,7 +3746,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3041,7 +3759,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3088,7 +3806,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3103,32 +3821,32 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3203,22 +3921,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3226,23 +3944,23 @@
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -3250,15 +3968,15 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -3266,7 +3984,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3999,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3294,7 +4012,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3341,42 +4059,42 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -3384,7 +4102,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -3399,10 +4117,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6964F33-DB17-499C-B5C9-59E23DEADFBA}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3414,7 +4132,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -3445,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3465,7 +4183,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3493,10 +4211,63 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3511,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3078976-F65B-4A80-99C7-8AE4B55462F2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3525,7 +4296,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3572,8 +4343,420 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED7D193-79C3-4030-B47D-CDF7879C9292}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D685E91F-7C32-4921-B914-8EF84354C7A5}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D62BD-8426-40B1-AF35-51B8740F4D73}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1"/>
@@ -3781,6 +4964,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF2531F-B242-462F-BD83-CDEF1FC79495}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3824A-3D64-4B56-85A5-6EFDEFC3777E}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6860DBC2-28F3-4C46-8A83-59852F069026}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4096,7 +5602,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4116,7 +5622,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4394,7 +5900,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4414,7 +5920,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4617,7 +6123,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4637,7 +6143,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144394F-D93A-4062-8F8C-B7F583246443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D124A-263C-4C1C-B113-C9FE8A7001E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="8" activeTab="17" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="3820" yWindow="2690" windowWidth="19200" windowHeight="10060" tabRatio="722" firstSheet="19" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -2227,7 +2227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="229">
   <si>
     <t>이름</t>
   </si>
@@ -2946,6 +2946,163 @@
   </si>
   <si>
     <t>…젠장…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹고 살기 위해 어떤 알바라도 했어야 했지만 아직 미성년자인 나를 받아주는 곳은 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설령 있다하더라도 도망친 아빠로 부터 동의서를 받았어야 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나마 전에 했던 곳은 내 사정을 딱하게 여기고 받아주셨지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 그런 곳은 거의 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 이젠 그 곳으로 아빠가 날 찾아올지도 몰라 더 이상 일을 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피씨방에서 전전긍긍하며 살아가고 있지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 더 이상 돈이 없어져간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…어쩌지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생, 혹시 도움 필요해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네…? 누구세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 그냥 여기 피씨방 자주 오는 아저씨인데, 요 며칠 계속 여기 있는 거 같길래… 혹시 돈이 부족하니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…네…이제 여기도 못 있어요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…그럼 나 아는 사람이 사람 구하고 있는데 학생도 할 수 있어. 하지 않겠니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 제안은 사실 제안이 아니다. 애초에 나에겐 선택권이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 이 제안을 받아들이지 않으면 굶어죽을 선택지 밖에 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 나는 누군가의 돈벌이 수단로서 도구로서 착취되어갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나에게 손 내밀어준 사람이 데려간 그곳에는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 그저 성욕 풀이용으로, 돈 벌기 위한 용으로 존재할 뿐,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 결국 무모한 도전을 하지 않기로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 사람이 내 옆에서 숨쉬고 있는 이 순간으로 부터 당장 벗어나고 싶었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 드디어 나는 지옥으로 부터 탈출했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 해방감을 느낀 것도 잠시, 현실이 나의 목을 졸라오기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집으로부터 한참을 걸어가다 지친 나머지 나는 어떤 길거리에 주저 앉아 버렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미성년자인 내가 당장 할 수 있는 것이 뭐가 있었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르바이트? 부모님 동의 없이는 할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제것 모은 돈으로 월세집 구하기?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈도 없고, 할 수도 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 나는 앞으로 어떻게 살아가야 하는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…애초에 나는 살 수 없는 것일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생, 괜찮아? 아까부터 계속 혼자 앉아있길래.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 평범해 보이는 남자가 내게 다가와 걱정을 해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 가출했니? 밥은 먹었니? 많이 힘들어보이는데. 혹시 괜찮으면 내가 도와줘도 되겠니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답도 없는 이 상황에서 당장의 허기를 채울 수 있는 기회가 눈앞에 있는데 이를 놓칠 이유는 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 영원히 이 선택을 후회했지만, 내게 다른 선택지가 있었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 죽지 않기 위해 선택한 이 길이 내게 또다른 지옥이 될 줄 몰랐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 새로 맞이한 지옥에서 나는 그저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가의 성욕을 해소하기 위한,
+누군가의 돈을 벌기 위한 도구로서 존재할 뿐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기에는 '나'는 존재하지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기엔 '나'는 존재하지 않았다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3010,7 +3167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3019,6 +3176,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3337,7 +3497,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4283,7 +4443,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4524,8 +4684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D685E91F-7C32-4921-B914-8EF84354C7A5}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4694,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D62BD-8426-40B1-AF35-51B8740F4D73}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4756,31 +4916,114 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4794,7 +5037,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5101,7 +5344,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5160,19 +5403,29 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
@@ -5195,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6860DBC2-28F3-4C46-8A83-59852F069026}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5257,31 +5510,85 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="D18" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5556,10 +5863,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF484EFD-D010-4661-B7A1-25B67F7291A6}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5639,17 +5946,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D6">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -5666,13 +5968,13 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="56.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
@@ -5857,7 +6159,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D124A-263C-4C1C-B113-C9FE8A7001E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68601B37-595F-47C1-9BCC-635A058F47AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2690" windowWidth="19200" windowHeight="10060" tabRatio="722" firstSheet="19" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="13" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -272,7 +272,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{82C6C873-CC36-4783-83A0-27A973924E76}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CDF2DAD9-50FC-4422-A230-F55ECF6F026A}">
       <text>
         <r>
           <rPr>
@@ -283,16 +283,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -518,7 +513,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{39F978A5-865D-46F1-933F-0207787A1D11}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{644B1415-35C6-4A6A-A312-3ED9457BEA62}">
       <text>
         <r>
           <rPr>
@@ -529,16 +524,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -552,7 +542,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{94666E66-B8EE-43C3-9189-21C2C13E5837}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{56F44738-A4F0-498C-9914-AA1FA90A3F8E}">
       <text>
         <r>
           <rPr>
@@ -563,16 +553,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -586,7 +571,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{91DF13ED-A978-4508-9A18-AE4843BF2781}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BBFB7A30-A906-4E2E-A10D-0BA1039FCB17}">
       <text>
         <r>
           <rPr>
@@ -597,16 +582,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -832,7 +812,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{43BC3142-D916-4B3D-B634-A4D15F9753E8}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BE1A16B7-014A-48A0-BD29-5937058D845F}">
       <text>
         <r>
           <rPr>
@@ -843,16 +823,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -1078,7 +1053,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B34F8ED4-E0DC-426D-BACC-65657AE8E4E7}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C4985AE1-7966-40FA-B9ED-BB45E703B8C4}">
       <text>
         <r>
           <rPr>
@@ -1089,16 +1064,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -1112,7 +1082,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70869978-0DC1-4E22-920C-8CB1FCD523C9}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BA750793-3560-4DB8-906F-11E33D8D5977}">
       <text>
         <r>
           <rPr>
@@ -1123,16 +1093,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -1157,16 +1122,10 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>스핏 어린이
+0: 기본
+1: 두려운 표정
+2: 패닉</t>
         </r>
       </text>
     </comment>
@@ -1392,7 +1351,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{514BA5BE-9F56-4A06-AD04-516351C12BFE}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7114822D-C7CD-477C-B869-71C2981419FD}">
       <text>
         <r>
           <rPr>
@@ -1403,16 +1362,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -1426,7 +1380,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9941CC4D-03ED-4EC8-B3CF-9B6A80E67070}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{98127920-4BD1-4BCA-9D79-A916442F9244}">
       <text>
         <r>
           <rPr>
@@ -1437,16 +1391,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -1460,7 +1409,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{70042AEB-74E6-4C70-97D4-EEA78B0EFF23}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{88EF45DD-F5A7-44C2-8817-7E4236EBB813}">
       <text>
         <r>
           <rPr>
@@ -1471,16 +1420,10 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>스핏 어린이
+0: 기본
+1: 두려운 표정
+2: 패닉</t>
         </r>
       </text>
     </comment>
@@ -1740,7 +1683,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D0423AA-7A35-40FD-885A-CCDF56B7B43C}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{17F38F50-213D-46F4-A14D-8F65E780EEB2}">
       <text>
         <r>
           <rPr>
@@ -1751,16 +1694,10 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>스핏 어린이
+0: 기본
+1: 두려운 표정
+2: 패닉</t>
         </r>
       </text>
     </comment>
@@ -1997,16 +1934,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+          <t>청소년 스핏
+0: 기본
+1:화난 표정
+2: 유리파편
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -2227,7 +2159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="238">
   <si>
     <t>이름</t>
   </si>
@@ -3103,6 +3035,39 @@
   </si>
   <si>
     <t>거기엔 '나'는 존재하지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Speat_Father</t>
+  </si>
+  <si>
+    <t>NPC_Speat_Father</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speat_Child</t>
+  </si>
+  <si>
+    <t>Speat_Child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speat_Adolescene</t>
+  </si>
+  <si>
+    <t>Speat_Adolescene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3494,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8944CA-F2E0-4795-A0E9-9BF85EE47D03}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3577,7 +3542,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3588,28 +3556,9 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8">
         <v>1</v>
       </c>
     </row>
@@ -3626,7 +3575,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3758,10 +3707,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476287AE-8D43-457F-9581-A3BD7766E0CD}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3841,7 +3790,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3852,44 +3804,25 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C8" t="s">
         <v>148</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
@@ -3906,7 +3839,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4021,7 +3954,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4080,21 +4013,45 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>121</v>
       </c>
@@ -4103,6 +4060,12 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>122</v>
       </c>
@@ -4111,6 +4074,12 @@
       <c r="A10" t="s">
         <v>123</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>124</v>
       </c>
@@ -4119,6 +4088,12 @@
       <c r="A11" t="s">
         <v>123</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>125</v>
       </c>
@@ -4127,6 +4102,12 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>126</v>
       </c>
@@ -4135,6 +4116,12 @@
       <c r="A13" t="s">
         <v>123</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>127</v>
       </c>
@@ -4142,6 +4129,12 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>36</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>143</v>
@@ -4159,7 +4152,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4223,21 +4216,45 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>133</v>
       </c>
@@ -4253,6 +4270,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>141</v>
       </c>
@@ -4260,6 +4283,12 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>36</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>142</v>
@@ -4277,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6964F33-DB17-499C-B5C9-59E23DEADFBA}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4360,7 +4389,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4368,65 +4400,46 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
       <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4443,7 +4456,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4507,36 +4520,78 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>171</v>
       </c>
@@ -4553,10 +4608,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED7D193-79C3-4030-B47D-CDF7879C9292}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4636,7 +4691,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4647,28 +4705,9 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8">
         <v>1</v>
       </c>
     </row>
@@ -4685,7 +4724,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4752,6 +4791,12 @@
       <c r="A6" t="s">
         <v>123</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
@@ -4762,11 +4807,23 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>177</v>
       </c>
@@ -4775,6 +4832,12 @@
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>178</v>
       </c>
@@ -4782,6 +4845,12 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>36</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>179</v>
@@ -4857,7 +4926,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4959,13 +5028,22 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>3</v>
+      </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>199</v>
@@ -4975,13 +5053,22 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>237</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>3</v>
+      </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>201</v>
@@ -4990,6 +5077,12 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>202</v>
@@ -5037,7 +5130,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5117,6 +5210,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
@@ -5137,6 +5236,12 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
@@ -5146,6 +5251,9 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
@@ -5155,6 +5263,12 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
@@ -5164,6 +5278,9 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
@@ -5181,23 +5298,41 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
       <c r="D19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
@@ -5344,7 +5479,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5451,7 +5586,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5543,6 +5678,12 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>219</v>
       </c>
@@ -5555,6 +5696,12 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>221</v>
@@ -5602,7 +5749,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5676,41 +5823,83 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
@@ -5739,7 +5928,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5801,6 +5990,12 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
@@ -5808,6 +6003,12 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>58</v>
@@ -5968,7 +6169,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6045,6 +6246,12 @@
       <c r="A8" t="s">
         <v>64</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>63</v>
       </c>
@@ -6053,6 +6260,12 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
@@ -6062,6 +6275,12 @@
       <c r="A10" t="s">
         <v>64</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
@@ -6071,24 +6290,48 @@
       <c r="A11" t="s">
         <v>64</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
@@ -6098,6 +6341,12 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>230</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
@@ -6107,6 +6356,12 @@
       <c r="A16" t="s">
         <v>64</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
       <c r="D16" t="s">
         <v>71</v>
       </c>
@@ -6116,6 +6371,12 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
       <c r="D17" t="s">
         <v>72</v>
       </c>
@@ -6127,6 +6388,12 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
       <c r="D19" t="s">
         <v>74</v>
       </c>
@@ -6156,10 +6423,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19964443-B7ED-4F71-8376-E110A674DAE7}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6239,33 +6506,17 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6282,7 +6533,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6346,16 +6597,34 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
@@ -6379,10 +6648,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545A19C8-23AC-40D5-88B1-14785F06D464}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6462,20 +6731,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6">
         <v>1</v>
       </c>
     </row>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68601B37-595F-47C1-9BCC-635A058F47AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39379D03-BF8E-468C-BDE8-69D6CFE3E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="13" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16070" windowHeight="13800" tabRatio="722" firstSheet="18" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -586,7 +586,9 @@
 0: 기본
 1:화난 표정
 2: 유리파편
-3: 슬픈 표정</t>
+3: 슬픈 표정(상처)
+4: 패닉(상처)
+5.예민(상처)</t>
         </r>
       </text>
     </comment>
@@ -827,7 +829,9 @@
 0: 기본
 1:화난 표정
 2: 유리파편
-3: 슬픈 표정</t>
+3: 슬픈 표정(상처)
+4: 패닉(상처)
+5.예민(상처)</t>
         </r>
       </text>
     </comment>
@@ -1068,7 +1072,9 @@
 0: 기본
 1:화난 표정
 2: 유리파편
-3: 슬픈 표정</t>
+3: 슬픈 표정(상처)
+4: 패닉(상처)
+5.예민(상처)</t>
         </r>
       </text>
     </comment>
@@ -1122,10 +1128,12 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스핏 어린이
+          <t xml:space="preserve">스핏 어린이
 0: 기본
 1: 두려운 표정
-2: 패닉</t>
+2: 패닉
+3: 슬픈 표정
+</t>
         </r>
       </text>
     </comment>
@@ -1423,7 +1431,8 @@
           <t>스핏 어린이
 0: 기본
 1: 두려운 표정
-2: 패닉</t>
+2: 패닉
+3: 슬픈 표정</t>
         </r>
       </text>
     </comment>
@@ -1938,7 +1947,9 @@
 0: 기본
 1:화난 표정
 2: 유리파편
-3: 슬픈 표정</t>
+3: 슬픈표정(상처O)
+4: 패닉(상처O)
+5.예민(상처O)</t>
         </r>
       </text>
     </comment>
@@ -2159,7 +2170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="242">
   <si>
     <t>이름</t>
   </si>
@@ -2630,10 +2641,6 @@
   </si>
   <si>
     <t>하…(맞는 말이긴 하지) 얼른 자요. 많이 취했네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유리잔을 던지는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3068,6 +3075,26 @@
   </si>
   <si>
     <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convenience store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3505,7 +3532,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3525,7 +3552,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3575,7 +3602,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3634,66 +3661,144 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>235</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>235</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>108</v>
       </c>
@@ -3707,10 +3812,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476287AE-8D43-457F-9581-A3BD7766E0CD}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3753,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3773,7 +3878,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3793,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3804,25 +3909,20 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8">
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -3836,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9FCA44-856B-4E55-8D34-B58F5EDBE313}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3848,14 +3948,15 @@
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="20.58203125" customWidth="1"/>
     <col min="4" max="4" width="45.9140625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3882,8 +3983,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3896,48 +4000,96 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>115</v>
       </c>
@@ -3954,7 +4106,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3967,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4017,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>118</v>
@@ -4028,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>119</v>
@@ -4039,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>120</v>
@@ -4050,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>121</v>
@@ -4064,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>122</v>
@@ -4078,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>124</v>
@@ -4092,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>125</v>
@@ -4106,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>126</v>
@@ -4120,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>127</v>
@@ -4134,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4149,10 +4301,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816B0C39-7AC1-42B6-906B-640B37FEF25A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4163,12 +4315,12 @@
     <col min="4" max="4" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4182,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4195,8 +4347,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4209,78 +4364,84 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -4288,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" s="1"/>
     </row>
   </sheetData>
@@ -4321,7 +4482,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4352,7 +4513,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4372,7 +4533,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4392,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4409,38 +4570,38 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4455,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3078976-F65B-4A80-99C7-8AE4B55462F2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="B6:C6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4469,7 +4630,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4516,84 +4677,84 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4623,7 +4784,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4654,7 +4815,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4674,7 +4835,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4694,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4705,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4724,7 +4885,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4737,7 +4898,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4784,7 +4945,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4792,40 +4953,46 @@
         <v>123</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4836,44 +5003,62 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -4883,35 +5068,41 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>123</v>
       </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +5117,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4939,7 +5130,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4986,42 +5177,42 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5032,21 +5223,21 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5057,21 +5248,21 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -5082,40 +5273,40 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5130,7 +5321,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5211,10 +5402,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -5240,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -5252,7 +5443,7 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
@@ -5267,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
@@ -5279,7 +5470,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
@@ -5287,18 +5478,36 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
@@ -5309,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -5320,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -5331,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
@@ -5350,7 +5559,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5362,7 +5571,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -5393,7 +5602,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -5413,7 +5622,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -5441,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5460,7 +5669,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5479,7 +5688,132 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6860DBC2-28F3-4C46-8A83-59852F069026}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5538,140 +5872,69 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6860DBC2-28F3-4C46-8A83-59852F069026}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="45.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -5682,15 +5945,15 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5701,40 +5964,40 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="34" x14ac:dyDescent="0.45">
       <c r="D18" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5749,7 +6012,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5824,10 +6087,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>49</v>
@@ -5835,10 +6098,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>50</v>
@@ -5850,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>51</v>
@@ -5862,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
@@ -5874,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>53</v>
@@ -5886,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>54</v>
@@ -5898,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -5994,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
@@ -6008,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>58</v>
@@ -6110,7 +6373,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6130,7 +6393,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -6169,7 +6432,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6250,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>63</v>
@@ -6264,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -6279,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
@@ -6294,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
@@ -6303,10 +6566,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>75</v>
@@ -6318,7 +6581,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>68</v>
@@ -6327,10 +6590,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
@@ -6345,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>70</v>
@@ -6360,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -6375,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -6389,10 +6652,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
@@ -6469,7 +6732,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6489,7 +6752,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -6530,10 +6793,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6542,14 +6805,15 @@
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="20.58203125" customWidth="1"/>
     <col min="4" max="4" width="45.9140625" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6563,7 +6827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6576,8 +6840,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6590,51 +6857,54 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>235</v>
-      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
         <v>85</v>
       </c>
@@ -6651,7 +6921,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6694,7 +6964,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6714,7 +6984,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>

--- a/Excel2Json/bin/ep04/ep04.xlsx
+++ b/Excel2Json/bin/ep04/ep04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39379D03-BF8E-468C-BDE8-69D6CFE3E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C97CE57-80E5-4F90-83C6-785355D7A33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16070" windowHeight="13800" tabRatio="722" firstSheet="18" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="13" activeTab="21" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="401010_task" sheetId="18" r:id="rId1"/>
@@ -2170,7 +2170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="244">
   <si>
     <t>이름</t>
   </si>
@@ -2496,10 +2496,6 @@
   </si>
   <si>
     <t>dialogue_ep4/401012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰차효과음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3082,19 +3078,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>convenience store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottle</t>
+    <t>Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3532,7 +3540,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3552,7 +3560,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3602,7 +3610,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3615,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3665,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3676,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -3687,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -3698,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3709,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3720,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -3731,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -3742,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -3753,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -3764,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -3775,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -3786,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
@@ -3797,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3835,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -3858,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3878,7 +3886,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3898,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3909,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3920,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3953,7 +3961,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4001,12 +4009,12 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -4014,15 +4022,15 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -4030,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -4041,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -4055,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -4066,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -4077,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -4088,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4127,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4169,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4180,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4191,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4202,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4216,38 +4224,38 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4258,24 +4266,24 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -4286,10 +4294,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4312,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4317,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4365,15 +4373,15 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -4381,10 +4389,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -4392,10 +4400,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -4403,10 +4411,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -4414,20 +4422,20 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -4435,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -4449,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -4482,7 +4490,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4513,7 +4521,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4533,7 +4541,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4553,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4570,38 +4578,38 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4677,7 +4685,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4685,10 +4693,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4696,10 +4704,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4707,10 +4715,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4718,10 +4726,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4729,10 +4737,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4740,10 +4748,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4751,10 +4759,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4784,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -4815,7 +4823,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4835,7 +4843,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4855,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4866,7 +4874,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4898,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4945,18 +4953,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -4967,10 +4975,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4978,10 +4986,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4989,10 +4997,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5003,24 +5011,24 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5028,10 +5036,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5039,10 +5047,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -5050,15 +5058,15 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -5068,41 +5076,41 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5114,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D62BD-8426-40B1-AF35-51B8740F4D73}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="B14:C14"/>
+      <selection activeCell="E5" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5125,15 +5133,16 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+    <col min="4" max="4" width="83.4140625" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5160,8 +5169,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5174,48 +5186,54 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5223,24 +5241,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5248,21 +5266,21 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -5273,40 +5291,40 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5339,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5364,6 +5382,9 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -5378,6 +5399,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -5399,13 +5423,16 @@
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -5431,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -5443,7 +5470,7 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
@@ -5458,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
@@ -5470,7 +5497,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
@@ -5482,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
@@ -5494,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -5506,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -5518,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -5529,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -5540,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
@@ -5571,7 +5598,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -5602,7 +5629,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -5622,7 +5649,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -5650,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5669,7 +5696,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5701,7 +5728,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5751,10 +5778,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5762,20 +5789,20 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5783,10 +5810,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5810,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6860DBC2-28F3-4C46-8A83-59852F069026}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5821,15 +5848,16 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+    <col min="4" max="4" width="82.4140625" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5843,7 +5871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5856,8 +5884,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5870,74 +5901,80 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5945,18 +5982,18 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5964,40 +6001,40 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="34" x14ac:dyDescent="0.45">
       <c r="D18" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6012,7 +6049,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6055,6 +6092,9 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -6069,6 +6109,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
@@ -6079,6 +6122,9 @@
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
@@ -6090,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>49</v>
@@ -6101,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>50</v>
@@ -6113,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>51</v>
@@ -6125,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
@@ -6137,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>53</v>
@@ -6149,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>54</v>
@@ -6161,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
@@ -6257,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
@@ -6271,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>58</v>
@@ -6373,7 +6419,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6393,7 +6439,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -6432,7 +6478,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6475,6 +6521,9 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -6489,11 +6538,17 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
@@ -6513,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>63</v>
@@ -6527,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -6542,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
@@ -6557,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
@@ -6569,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>75</v>
@@ -6581,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>68</v>
@@ -6593,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
@@ -6608,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>70</v>
@@ -6623,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -6638,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -6655,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
@@ -6686,10 +6741,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19964443-B7ED-4F71-8376-E110A674DAE7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6732,7 +6787,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6752,7 +6807,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -6772,15 +6827,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6796,7 +6846,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6858,7 +6908,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -6871,13 +6921,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -6890,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -6933,7 +6983,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -6964,7 +7014,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -6984,7 +7034,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -7004,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>1</v>
